--- a/cmp_web/CMS 개발진행상황.xlsx
+++ b/cmp_web/CMS 개발진행상황.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerin\Desktop\4. 서림\cmp\cmp_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D093F3-C333-4A04-82B0-255196FE92F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801B2681-420E-4502-9065-3ACB11AD2128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49440" yWindow="2040" windowWidth="30045" windowHeight="16845" xr2:uid="{6B0445DF-EAB5-4A10-BF63-7997BD4E0A9C}"/>
   </bookViews>
@@ -126,11 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 오래되었거나 사용하지 않는 로직 제거,
-- 프로젝트 전반 퍼블리싱 작업 (조앤)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 전반 공통 퍼블리싱 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +378,11 @@
   </si>
   <si>
     <t>추가와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 오래되었거나 사용하지 않는 로직 제거
+- 프로젝트 전반 퍼블리싱 작업 대기 (조앤)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,14 +412,14 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="배달의민족 주아"/>
+      <name val="KoPub돋움체 Bold"/>
       <family val="1"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="배달의민족 주아"/>
+      <name val="KoPub돋움체 Bold"/>
       <family val="1"/>
       <charset val="129"/>
     </font>
@@ -526,65 +526,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,24 +922,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0937F5D5-CB70-4AA2-983B-DD32542DD0D2}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.9140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="3"/>
-    <col min="5" max="5" width="15.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="21"/>
+    <col min="5" max="5" width="18.58203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="55" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -956,837 +956,837 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="63.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="63.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="63.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="5" t="s">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="5" t="s">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="5" t="s">
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17" t="s">
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="8" t="s">
+      <c r="C37" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="14" t="s">
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17" t="s">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="17">
+        <v>1</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17" t="s">
+      <c r="C53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="19"/>
+    </row>
+    <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="17"/>
-      <c r="B28" s="5" t="s">
+      <c r="C57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="4"/>
+      <c r="B59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="12">
-        <v>1</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="12">
-        <v>0</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="17"/>
-      <c r="B37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="17"/>
-      <c r="B38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
-      <c r="B39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="17"/>
-      <c r="B40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="20" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="15">
-        <v>1</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="17"/>
-      <c r="B59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="E12:E28"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E41:E59"/>
+    <mergeCell ref="E29:E40"/>
+    <mergeCell ref="B41:B48"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B29:B36"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="B12:B19"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E12:E28"/>
     <mergeCell ref="A12:A28"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B58"/>
     <mergeCell ref="A41:A59"/>
-    <mergeCell ref="E41:E59"/>
     <mergeCell ref="A29:A40"/>
-    <mergeCell ref="E29:E40"/>
-    <mergeCell ref="B41:B48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmp_web/CMS 개발진행상황.xlsx
+++ b/cmp_web/CMS 개발진행상황.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerin\Desktop\4. 서림\cmp\cmp_web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerin\Desktop\sl\cms\cmp_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801B2681-420E-4502-9065-3ACB11AD2128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5F3611-90AD-4DE3-BB94-36A52466784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49440" yWindow="2040" windowWidth="30045" windowHeight="16845" xr2:uid="{6B0445DF-EAB5-4A10-BF63-7997BD4E0A9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{6B0445DF-EAB5-4A10-BF63-7997BD4E0A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,15 +412,15 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="KoPub돋움체 Bold"/>
-      <family val="1"/>
+      <name val="Microsoft GothicNeo"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="KoPub돋움체 Bold"/>
-      <family val="1"/>
+      <name val="Microsoft GothicNeo"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -922,22 +922,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0937F5D5-CB70-4AA2-983B-DD32542DD0D2}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="21" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="21"/>
-    <col min="5" max="5" width="18.58203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="21"/>
+    <col min="5" max="5" width="16.5" style="21" customWidth="1"/>
     <col min="6" max="6" width="55" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="2"/>
+    <col min="7" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -955,7 +955,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -991,7 +991,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
@@ -1007,7 +1007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
@@ -1023,7 +1023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="63.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
@@ -1039,7 +1039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
@@ -1055,7 +1055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
@@ -1071,7 +1071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="9" t="s">
@@ -1087,7 +1087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="10" t="s">
@@ -1101,7 +1101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
@@ -1131,7 +1131,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
@@ -1145,7 +1145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
@@ -1157,7 +1157,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
@@ -1169,7 +1169,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
@@ -1181,7 +1181,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="13" t="s">
@@ -1195,7 +1195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
@@ -1207,7 +1207,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -1223,7 +1223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
@@ -1237,7 +1237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
@@ -1251,7 +1251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
@@ -1267,7 +1267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="13" t="s">
@@ -1281,7 +1281,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
@@ -1295,7 +1295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>9</v>
@@ -1311,7 +1311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
@@ -1323,7 +1323,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -1337,7 +1337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3" t="s">
@@ -1367,7 +1367,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
@@ -1381,7 +1381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
@@ -1393,7 +1393,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3" t="s">
@@ -1405,7 +1405,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
@@ -1417,7 +1417,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11" t="s">
@@ -1431,7 +1431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11" t="s">
@@ -1445,7 +1445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
         <v>7</v>
@@ -1461,7 +1461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
         <v>8</v>
@@ -1477,7 +1477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
         <v>9</v>
@@ -1493,7 +1493,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -1507,7 +1507,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3" t="s">
@@ -1539,7 +1539,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3" t="s">
@@ -1553,7 +1553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="3" t="s">
@@ -1565,7 +1565,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3" t="s">
@@ -1577,7 +1577,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
@@ -1589,7 +1589,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="17" t="s">
@@ -1603,7 +1603,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="18" t="s">
@@ -1617,7 +1617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>7</v>
@@ -1633,7 +1633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="3" t="s">
@@ -1647,7 +1647,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="3" t="s">
@@ -1661,7 +1661,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="3" t="s">
@@ -1675,7 +1675,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>8</v>
@@ -1691,7 +1691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3" t="s">
@@ -1703,7 +1703,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="3" t="s">
@@ -1715,7 +1715,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="19"/>
     </row>
-    <row r="56" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="3" t="s">
@@ -1727,7 +1727,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>9</v>
@@ -1741,7 +1741,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="3" t="s">
@@ -1753,7 +1753,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="19"/>
     </row>
-    <row r="59" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="3" t="s">
         <v>10</v>
@@ -1769,6 +1769,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A12:A28"/>
+    <mergeCell ref="A41:A59"/>
+    <mergeCell ref="A29:A40"/>
     <mergeCell ref="F53:F58"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B26:B27"/>
@@ -1781,12 +1787,6 @@
     <mergeCell ref="B41:B48"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B29:B36"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A12:A28"/>
-    <mergeCell ref="A41:A59"/>
-    <mergeCell ref="A29:A40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
